--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_0.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_0.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_0.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-263724.5473518896</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>10477853.63860845</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30789066.36991068</v>
+        <v>27790152.75161</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.398707672358336e-10</v>
+        <v>1684280.80911358</v>
       </c>
     </row>
     <row r="11">
@@ -7981,22 +7981,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8142,10 +8142,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8379,16 +8379,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -8455,19 +8455,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8534,25 +8534,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -8616,13 +8616,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -8698,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8771,22 +8771,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8859,10 +8859,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8935,16 +8935,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9008,25 +9008,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9166,22 +9166,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9570,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -9643,10 +9643,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9807,10 +9807,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10193,13 +10193,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10275,13 +10275,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10430,13 +10430,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10512,16 +10512,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10667,22 +10667,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10749,16 +10749,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10825,16 +10825,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10986,13 +10986,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -11068,16 +11068,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11223,16 +11223,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11381,10 +11381,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11463,7 +11463,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -22573,22 +22573,22 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>222.3056898744495</v>
@@ -22652,7 +22652,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -22661,10 +22661,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -22734,10 +22734,10 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>127.6855444652332</v>
@@ -22810,7 +22810,7 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>235.7664149699872</v>
@@ -22819,13 +22819,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>222.3056898744495</v>
@@ -22889,13 +22889,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -22904,7 +22904,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -22971,16 +22971,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L7" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>137.7280040491476</v>
@@ -23047,19 +23047,19 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -23126,25 +23126,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>145.679503963964</v>
@@ -23208,13 +23208,13 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>138.4565384518428</v>
@@ -23290,16 +23290,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>222.3056898744495</v>
@@ -23363,22 +23363,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -23451,10 +23451,10 @@
         <v>138.9257839476051</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>137.7280040491476</v>
@@ -23527,16 +23527,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>222.3056898744495</v>
@@ -23600,25 +23600,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -23685,7 +23685,7 @@
         <v>134.8846762812383</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>127.6855444652332</v>
@@ -23758,22 +23758,22 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>222.3056898744495</v>
@@ -23843,7 +23843,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -23852,7 +23852,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -24001,7 +24001,7 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
@@ -24077,7 +24077,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -24086,10 +24086,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -24162,7 +24162,7 @@
         <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>138.4565384518428</v>
@@ -24235,10 +24235,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
@@ -24326,7 +24326,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -24399,10 +24399,10 @@
         <v>138.9257839476051</v>
       </c>
       <c r="N25" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>137.7280040491476</v>
@@ -24472,13 +24472,13 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>230.0982114216867</v>
@@ -24557,7 +24557,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -24566,7 +24566,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -24630,7 +24630,7 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L28" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>138.9257839476051</v>
@@ -24706,22 +24706,22 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>222.3056898744495</v>
@@ -24785,13 +24785,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
@@ -24800,7 +24800,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -24867,13 +24867,13 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>138.4565384518428</v>
@@ -24952,7 +24952,7 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>230.0982114216867</v>
@@ -25022,13 +25022,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
@@ -25037,7 +25037,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -25104,16 +25104,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>137.7280040491476</v>
@@ -25180,7 +25180,7 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>235.7664149699872</v>
@@ -25189,7 +25189,7 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>230.0982114216867</v>
@@ -25259,22 +25259,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -25341,16 +25341,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L37" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O37" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>137.7280040491476</v>
@@ -25417,16 +25417,16 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>230.0982114216867</v>
@@ -25496,7 +25496,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -25514,7 +25514,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -25578,13 +25578,13 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L40" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>138.4565384518428</v>
@@ -25660,16 +25660,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>222.3056898744495</v>
@@ -25733,10 +25733,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -25751,7 +25751,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -25815,16 +25815,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L43" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N43" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>137.7280040491476</v>
@@ -25900,7 +25900,7 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>230.0982114216867</v>
@@ -25973,10 +25973,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -25988,7 +25988,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -26055,7 +26055,7 @@
         <v>134.8846762812383</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>127.6855444652332</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>172147.4564623187</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>182847.5994019398</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>182987.3945782901</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>171165.9949734709</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>187632.7892677333</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>150272.5348460527</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>69227.33336802496</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>87277.62269806072</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>124436.7205980396</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>220723.4332581452</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>96997.22070799567</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>132539.0888193136</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>134834.408395709</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>146147.4231337193</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>69991.64848464866</v>
       </c>
     </row>
   </sheetData>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2424.612062849559</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2575.318301435772</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2577.287247581552</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2410.788661598182</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2642.715341799061</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2116.514575296517</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>975.0328643383805</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1229.262291521983</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1752.629867578022</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3108.780750114724</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1366.158038140784</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1866.747729849489</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1899.076174587451</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2058.414410334074</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>985.7978659809678</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660709</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660709</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_0.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-263724.5473518896</v>
+        <v>-109163.0501070898</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10477853.63860845</v>
+        <v>13476767.25690909</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27790152.75161</v>
+        <v>30789066.36991068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1684280.80911358</v>
+        <v>-1.398707672358336e-10</v>
       </c>
     </row>
     <row r="11">
@@ -7981,22 +7981,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8142,10 +8142,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8379,16 +8379,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -8455,19 +8455,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8534,25 +8534,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -8616,13 +8616,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -8698,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8771,22 +8771,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8859,10 +8859,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8935,16 +8935,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9008,25 +9008,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9166,22 +9166,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9570,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -9643,10 +9643,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9807,10 +9807,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10193,13 +10193,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10275,13 +10275,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10430,13 +10430,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10512,16 +10512,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10667,22 +10667,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10749,16 +10749,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10825,16 +10825,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10986,13 +10986,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -11068,16 +11068,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11223,16 +11223,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11381,10 +11381,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11463,7 +11463,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -22573,22 +22573,22 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>222.3056898744495</v>
@@ -22652,7 +22652,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -22661,10 +22661,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -22734,10 +22734,10 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
         <v>127.6855444652332</v>
@@ -22810,7 +22810,7 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>235.7664149699872</v>
@@ -22819,13 +22819,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>222.3056898744495</v>
@@ -22889,13 +22889,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -22904,7 +22904,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -22971,16 +22971,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
         <v>137.7280040491476</v>
@@ -23047,19 +23047,19 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -23126,25 +23126,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>145.679503963964</v>
@@ -23208,13 +23208,13 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
         <v>138.4565384518428</v>
@@ -23290,16 +23290,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>222.3056898744495</v>
@@ -23363,22 +23363,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -23451,10 +23451,10 @@
         <v>138.9257839476051</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P13" t="n">
         <v>137.7280040491476</v>
@@ -23527,16 +23527,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>222.3056898744495</v>
@@ -23600,25 +23600,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -23685,7 +23685,7 @@
         <v>134.8846762812383</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N16" t="n">
         <v>127.6855444652332</v>
@@ -23758,22 +23758,22 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>222.3056898744495</v>
@@ -23843,7 +23843,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -23852,7 +23852,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -24001,7 +24001,7 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
@@ -24077,7 +24077,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -24086,10 +24086,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -24162,7 +24162,7 @@
         <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O22" t="n">
         <v>138.4565384518428</v>
@@ -24235,10 +24235,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
@@ -24326,7 +24326,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -24399,10 +24399,10 @@
         <v>138.9257839476051</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
         <v>137.7280040491476</v>
@@ -24472,13 +24472,13 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
         <v>230.0982114216867</v>
@@ -24557,7 +24557,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -24566,7 +24566,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -24630,7 +24630,7 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M28" t="n">
         <v>138.9257839476051</v>
@@ -24706,22 +24706,22 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>222.3056898744495</v>
@@ -24785,13 +24785,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
@@ -24800,7 +24800,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -24867,13 +24867,13 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O31" t="n">
         <v>138.4565384518428</v>
@@ -24952,7 +24952,7 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
         <v>230.0982114216867</v>
@@ -25022,13 +25022,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
@@ -25037,7 +25037,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -25104,16 +25104,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
         <v>137.7280040491476</v>
@@ -25180,7 +25180,7 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
         <v>235.7664149699872</v>
@@ -25189,7 +25189,7 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
         <v>230.0982114216867</v>
@@ -25259,22 +25259,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -25341,16 +25341,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N37" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
         <v>137.7280040491476</v>
@@ -25417,16 +25417,16 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
         <v>230.0982114216867</v>
@@ -25496,7 +25496,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -25514,7 +25514,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -25578,13 +25578,13 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O40" t="n">
         <v>138.4565384518428</v>
@@ -25660,16 +25660,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>222.3056898744495</v>
@@ -25733,10 +25733,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -25751,7 +25751,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -25815,16 +25815,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M43" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
         <v>137.7280040491476</v>
@@ -25900,7 +25900,7 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
         <v>230.0982114216867</v>
@@ -25973,10 +25973,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -25988,7 +25988,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -26055,7 +26055,7 @@
         <v>134.8846762812383</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N46" t="n">
         <v>127.6855444652332</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>172147.4564623187</v>
+        <v>-1.209627953357994e-11</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>182847.5994019398</v>
+        <v>-1.209627953357994e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>182987.3945782901</v>
+        <v>-1.209627953357994e-11</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>171165.9949734709</v>
+        <v>-1.209627953357994e-11</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>187632.7892677333</v>
+        <v>-1.209627953357994e-11</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>150272.5348460527</v>
+        <v>-1.209627953357994e-11</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69227.33336802496</v>
+        <v>-1.209627953357994e-11</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>87277.62269806072</v>
+        <v>-1.209627953357994e-11</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>124436.7205980396</v>
+        <v>-1.209627953357994e-11</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>220723.4332581452</v>
+        <v>-1.209627953357994e-11</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96997.22070799567</v>
+        <v>-1.209627953357994e-11</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>132539.0888193136</v>
+        <v>-1.209627953357994e-11</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>134834.408395709</v>
+        <v>-1.209627953357994e-11</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>146147.4231337193</v>
+        <v>-1.209627953357994e-11</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>69991.64848464866</v>
+        <v>-1.209627953357994e-11</v>
       </c>
     </row>
   </sheetData>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2424.612062849559</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2575.318301435772</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2577.287247581552</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2410.788661598182</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2642.715341799061</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2116.514575296517</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>975.0328643383805</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1229.262291521983</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1752.629867578022</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3108.780750114724</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1366.158038140784</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1866.747729849489</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1899.076174587451</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2058.414410334074</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>985.7978659809678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54153.64424660709</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="C6" t="n">
-        <v>-54153.64424660708</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="D6" t="n">
-        <v>-54153.64424660709</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="E6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="F6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="G6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="H6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="I6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="J6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="K6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="L6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="M6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="N6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="O6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="P6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
     </row>
   </sheetData>
